--- a/dataFiles/MindZoneLessons/Lessons.xlsx
+++ b/dataFiles/MindZoneLessons/Lessons.xlsx
@@ -19,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Testdata1</t>
-  </si>
-  <si>
-    <t>Writedata1</t>
-  </si>
-  <si>
-    <t>Lesson4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Mind_Zone</t>
   </si>
@@ -73,9 +61,6 @@
   </si>
   <si>
     <t>Lesson 4: Managing Worry and Problem Solving</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mind Zone</t>
   </si>
   <si>
     <t>100%</t>
@@ -121,10 +106,28 @@
     <t>This is to verify the lessons from the Mental Health Program.</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Lesson Eight</t>
+  </si>
+  <si>
+    <t>Lesson 8: Moving Forward</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Prabha@123</t>
+  </si>
+  <si>
+    <t>prabhaAutohzLW5080@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -188,11 +191,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -202,19 +202,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,171 +497,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="32.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="32.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
